--- a/appGreece/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/appGreece/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/redcross/app-designer/app/config/tables/deliveries/forms/deliveries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/redcross/app-designer/appGreece/config/tables/deliveries/forms/deliveries/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="calculates" sheetId="6" r:id="rId6"/>
     <sheet name="properties" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="114">
   <si>
     <t>type</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>text.spanish</t>
   </si>
   <si>
     <t>Delivery ID</t>
@@ -1000,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -1020,42 +1017,42 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>55</v>
-      </c>
-      <c r="K1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="37"/>
@@ -1069,14 +1066,14 @@
       <c r="A3" s="9"/>
       <c r="B3" s="17"/>
       <c r="C3" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="31" t="s">
         <v>58</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>59</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="21"/>
@@ -1098,17 +1095,17 @@
       <c r="A4" s="22"/>
       <c r="B4" s="23"/>
       <c r="C4" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="32"/>
       <c r="G4" s="25"/>
       <c r="H4" s="26"/>
       <c r="I4" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J4" s="11" t="b">
         <f>TRUE()</f>
@@ -1128,7 +1125,7 @@
     </row>
     <row r="5" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="24"/>
@@ -1153,10 +1150,10 @@
     </row>
     <row r="6" spans="1:21" ht="48" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>63</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>64</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
@@ -1164,7 +1161,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="25"/>
       <c r="H6" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -1184,14 +1181,14 @@
       <c r="A7" s="22"/>
       <c r="B7" s="23"/>
       <c r="C7" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="26"/>
@@ -1220,10 +1217,10 @@
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="41" t="s">
         <v>67</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>68</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="26"/>
@@ -1248,7 +1245,7 @@
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="C9" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="4" t="s">
@@ -1258,7 +1255,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="26"/>
       <c r="I9" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J9" s="11" t="b">
         <v>1</v>
@@ -1277,7 +1274,7 @@
     </row>
     <row r="10" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="24"/>
@@ -1304,12 +1301,12 @@
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="4"/>
       <c r="F11" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="26"/>
@@ -1331,14 +1328,14 @@
       <c r="A12" s="22"/>
       <c r="B12" s="23"/>
       <c r="C12" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="26"/>
@@ -1367,10 +1364,10 @@
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>67</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>68</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="26"/>
@@ -1395,7 +1392,7 @@
       <c r="A14" s="22"/>
       <c r="B14" s="23"/>
       <c r="C14" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="4" t="s">
@@ -1405,7 +1402,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="26"/>
       <c r="I14" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -1422,7 +1419,7 @@
     </row>
     <row r="15" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
@@ -1447,10 +1444,10 @@
     </row>
     <row r="16" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -1476,16 +1473,16 @@
       <c r="A17" s="22"/>
       <c r="B17" s="23"/>
       <c r="C17" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="32" t="s">
         <v>77</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>78</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="26"/>
@@ -1508,10 +1505,10 @@
     </row>
     <row r="18" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -1535,7 +1532,7 @@
     </row>
     <row r="19" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="24"/>
@@ -1560,7 +1557,7 @@
     </row>
     <row r="20" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
@@ -1585,7 +1582,7 @@
     </row>
     <row r="21" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
@@ -1612,12 +1609,12 @@
       <c r="A22" s="22"/>
       <c r="B22" s="23"/>
       <c r="C22" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="4"/>
       <c r="F22" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="26"/>
@@ -1639,16 +1636,16 @@
       <c r="A23" s="22"/>
       <c r="B23" s="23"/>
       <c r="C23" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="26"/>
@@ -1668,7 +1665,7 @@
     </row>
     <row r="24" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="24"/>
@@ -1693,10 +1690,10 @@
     </row>
     <row r="25" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -1722,7 +1719,7 @@
       <c r="A26" s="22"/>
       <c r="B26" s="23"/>
       <c r="C26" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="4" t="s">
@@ -1732,7 +1729,7 @@
       <c r="G26" s="25"/>
       <c r="H26" s="26"/>
       <c r="I26" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
@@ -1751,14 +1748,14 @@
       <c r="A27" s="22"/>
       <c r="B27" s="23"/>
       <c r="C27" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="32" t="s">
         <v>84</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>85</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
@@ -1780,7 +1777,7 @@
       <c r="A28" s="22"/>
       <c r="B28" s="23"/>
       <c r="C28" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="4" t="s">
@@ -1790,7 +1787,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="26"/>
       <c r="I28" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
@@ -1816,7 +1813,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
@@ -1845,7 +1842,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
@@ -1867,14 +1864,14 @@
       <c r="A31" s="22"/>
       <c r="B31" s="23"/>
       <c r="C31" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="32" t="s">
         <v>89</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>90</v>
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="26"/>
@@ -1894,7 +1891,7 @@
     </row>
     <row r="32" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="24"/>
@@ -1921,16 +1918,16 @@
       <c r="A33" s="22"/>
       <c r="B33" s="23"/>
       <c r="C33" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="F33" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G33" s="25"/>
       <c r="H33" s="26"/>
@@ -1950,10 +1947,10 @@
     </row>
     <row r="34" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
@@ -1977,7 +1974,7 @@
     </row>
     <row r="35" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="24"/>
@@ -2002,7 +1999,7 @@
     </row>
     <row r="36" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="24"/>
@@ -2029,14 +2026,14 @@
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="32" t="s">
         <v>92</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>93</v>
       </c>
       <c r="G37" s="25"/>
       <c r="H37" s="26"/>
@@ -2056,7 +2053,7 @@
     </row>
     <row r="38" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="24"/>
@@ -2081,7 +2078,7 @@
     </row>
     <row r="39" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="24"/>
@@ -2272,7 +2269,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -2283,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -2294,7 +2291,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -2385,10 +2382,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2398,55 +2395,52 @@
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2472,10 +2466,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
@@ -2483,24 +2477,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="C2" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2525,26 +2519,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="288" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="288" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2572,13 +2566,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>0</v>
@@ -2589,53 +2583,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
         <v>104</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>105</v>
-      </c>
-      <c r="C3" t="s">
-        <v>106</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
         <v>104</v>
       </c>
-      <c r="B4" t="s">
-        <v>105</v>
-      </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/appGreece/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/appGreece/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/redcross/app-designer/appGreece/config/tables/deliveries/forms/deliveries/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="989" activeTab="3"/>
+    <workbookView xWindow="3160" yWindow="620" windowWidth="44000" windowHeight="23200" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="5" r:id="rId1"/>
@@ -20,13 +15,13 @@
     <sheet name="calculates" sheetId="6" r:id="rId6"/>
     <sheet name="properties" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="112">
   <si>
     <t>type</t>
   </si>
@@ -294,12 +289,6 @@
   </si>
   <si>
     <t>now()</t>
-  </si>
-  <si>
-    <t>What is the name of the distributor?</t>
-  </si>
-  <si>
-    <t>What is the name of the delivery site?</t>
   </si>
   <si>
     <t>thanks</t>
@@ -987,7 +976,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -995,13 +984,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="53.83203125" customWidth="1"/>
@@ -1015,7 +1004,7 @@
     <col min="10" max="10" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="23">
       <c r="A1" s="6" t="s">
         <v>47</v>
       </c>
@@ -1050,9 +1039,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="23">
       <c r="A2" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="37"/>
@@ -1062,7 +1051,7 @@
       <c r="G2" s="39"/>
       <c r="H2" s="40"/>
     </row>
-    <row r="3" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="23">
       <c r="A3" s="9"/>
       <c r="B3" s="17"/>
       <c r="C3" s="18" t="s">
@@ -1091,7 +1080,7 @@
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
     </row>
-    <row r="4" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="23">
       <c r="A4" s="22"/>
       <c r="B4" s="23"/>
       <c r="C4" s="24" t="s">
@@ -1123,9 +1112,9 @@
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="23">
       <c r="A5" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="24"/>
@@ -1148,7 +1137,7 @@
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
     </row>
-    <row r="6" spans="1:21" ht="48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="46">
       <c r="A6" s="22" t="s">
         <v>62</v>
       </c>
@@ -1177,7 +1166,7 @@
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
     </row>
-    <row r="7" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="23">
       <c r="A7" s="22"/>
       <c r="B7" s="23"/>
       <c r="C7" s="24" t="s">
@@ -1188,7 +1177,7 @@
         <v>66</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="26"/>
@@ -1209,7 +1198,7 @@
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
     </row>
-    <row r="8" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="23">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="24" t="s">
@@ -1241,7 +1230,7 @@
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
     </row>
-    <row r="9" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="23">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="C9" s="24" t="s">
@@ -1272,7 +1261,7 @@
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
     </row>
-    <row r="10" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="23">
       <c r="A10" s="22" t="s">
         <v>69</v>
       </c>
@@ -1297,7 +1286,7 @@
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
     </row>
-    <row r="11" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="23">
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="24" t="s">
@@ -1324,7 +1313,7 @@
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
     </row>
-    <row r="12" spans="1:21" ht="43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="41">
       <c r="A12" s="22"/>
       <c r="B12" s="23"/>
       <c r="C12" s="24" t="s">
@@ -1356,7 +1345,7 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
     </row>
-    <row r="13" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="23">
       <c r="A13" s="22"/>
       <c r="B13" s="23"/>
       <c r="C13" s="24" t="s">
@@ -1388,7 +1377,7 @@
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
     </row>
-    <row r="14" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="23">
       <c r="A14" s="22"/>
       <c r="B14" s="23"/>
       <c r="C14" s="24" t="s">
@@ -1417,7 +1406,7 @@
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
     </row>
-    <row r="15" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="23">
       <c r="A15" s="22" t="s">
         <v>73</v>
       </c>
@@ -1442,7 +1431,7 @@
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
     </row>
-    <row r="16" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="23">
       <c r="A16" s="22" t="s">
         <v>62</v>
       </c>
@@ -1469,7 +1458,7 @@
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
     </row>
-    <row r="17" spans="1:21" ht="43" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="41">
       <c r="A17" s="22"/>
       <c r="B17" s="23"/>
       <c r="C17" s="24" t="s">
@@ -1503,7 +1492,7 @@
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
     </row>
-    <row r="18" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="23">
       <c r="A18" s="22" t="s">
         <v>62</v>
       </c>
@@ -1530,7 +1519,7 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
     </row>
-    <row r="19" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="23">
       <c r="A19" s="22" t="s">
         <v>79</v>
       </c>
@@ -1555,7 +1544,7 @@
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
     </row>
-    <row r="20" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="23">
       <c r="A20" s="22" t="s">
         <v>73</v>
       </c>
@@ -1580,7 +1569,7 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
     </row>
-    <row r="21" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="23">
       <c r="A21" s="22" t="s">
         <v>69</v>
       </c>
@@ -1605,7 +1594,7 @@
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
     </row>
-    <row r="22" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="23">
       <c r="A22" s="22"/>
       <c r="B22" s="23"/>
       <c r="C22" s="24" t="s">
@@ -1632,7 +1621,7 @@
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
     </row>
-    <row r="23" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="23">
       <c r="A23" s="22"/>
       <c r="B23" s="23"/>
       <c r="C23" s="24" t="s">
@@ -1663,7 +1652,7 @@
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
     </row>
-    <row r="24" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="23">
       <c r="A24" s="22" t="s">
         <v>73</v>
       </c>
@@ -1688,12 +1677,12 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
     </row>
-    <row r="25" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="23">
       <c r="A25" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -1715,7 +1704,7 @@
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
     </row>
-    <row r="26" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="23">
       <c r="A26" s="22"/>
       <c r="B26" s="23"/>
       <c r="C26" s="24" t="s">
@@ -1744,7 +1733,7 @@
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
     </row>
-    <row r="27" spans="1:21" ht="43" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="41">
       <c r="A27" s="22"/>
       <c r="B27" s="23"/>
       <c r="C27" s="24" t="s">
@@ -1773,7 +1762,7 @@
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
     </row>
-    <row r="28" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="23">
       <c r="A28" s="22"/>
       <c r="B28" s="23"/>
       <c r="C28" s="24" t="s">
@@ -1802,18 +1791,18 @@
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
     </row>
-    <row r="29" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="41">
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
       <c r="C29" s="24" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="4" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="26"/>
@@ -1831,19 +1820,15 @@
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
     </row>
-    <row r="30" spans="1:21" ht="24" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+    <row r="30" spans="1:21" ht="23">
+      <c r="A30" s="22" t="s">
+        <v>69</v>
+      </c>
       <c r="B30" s="23"/>
-      <c r="C30" s="24" t="s">
-        <v>3</v>
-      </c>
+      <c r="C30" s="24"/>
       <c r="D30" s="24"/>
-      <c r="E30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>87</v>
-      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="32"/>
       <c r="G30" s="25"/>
       <c r="H30" s="26"/>
       <c r="I30" s="11"/>
@@ -1860,18 +1845,20 @@
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
     </row>
-    <row r="31" spans="1:21" ht="43" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="23">
       <c r="A31" s="22"/>
       <c r="B31" s="23"/>
       <c r="C31" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="24"/>
+        <v>75</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="E31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="32" t="s">
         <v>88</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>89</v>
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="26"/>
@@ -1889,11 +1876,13 @@
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
     </row>
-    <row r="32" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="23">
       <c r="A32" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="23"/>
+        <v>62</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>78</v>
+      </c>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="4"/>
@@ -1914,21 +1903,15 @@
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
     </row>
-    <row r="33" spans="1:21" ht="24" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+    <row r="33" spans="1:21" ht="23">
+      <c r="A33" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="B33" s="23"/>
-      <c r="C33" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>90</v>
-      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="25"/>
       <c r="H33" s="26"/>
       <c r="I33" s="11"/>
@@ -1945,13 +1928,11 @@
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
     </row>
-    <row r="34" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="23">
       <c r="A34" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>78</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B34" s="23"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="4"/>
@@ -1972,15 +1953,19 @@
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
     </row>
-    <row r="35" spans="1:21" ht="24" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
-        <v>79</v>
-      </c>
+    <row r="35" spans="1:21" ht="41">
+      <c r="A35" s="22"/>
       <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
+      <c r="C35" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="D35" s="24"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="32"/>
+      <c r="E35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>90</v>
+      </c>
       <c r="G35" s="25"/>
       <c r="H35" s="26"/>
       <c r="I35" s="11"/>
@@ -1997,15 +1982,15 @@
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
     </row>
-    <row r="36" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="23">
       <c r="A36" s="22" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="32"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="33"/>
       <c r="G36" s="25"/>
       <c r="H36" s="26"/>
       <c r="I36" s="11"/>
@@ -2022,19 +2007,15 @@
       <c r="T36" s="11"/>
       <c r="U36" s="11"/>
     </row>
-    <row r="37" spans="1:21" ht="43" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
+    <row r="37" spans="1:21" ht="23">
+      <c r="A37" s="22" t="s">
+        <v>73</v>
+      </c>
       <c r="B37" s="23"/>
-      <c r="C37" s="24" t="s">
-        <v>56</v>
-      </c>
+      <c r="C37" s="24"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>92</v>
-      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="32"/>
       <c r="G37" s="25"/>
       <c r="H37" s="26"/>
       <c r="I37" s="11"/>
@@ -2051,59 +2032,14 @@
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
     </row>
-    <row r="38" spans="1:21" ht="24" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-    </row>
-    <row r="39" spans="1:21" ht="24" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2112,17 +2048,17 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2133,7 +2069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="23">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2141,7 +2077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="23">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2149,7 +2085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="23">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2157,7 +2093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="23">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2165,7 +2101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="23">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -2173,7 +2109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="23">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2181,7 +2117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="23">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,7 +2125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="23">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,7 +2133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="23">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -2205,7 +2141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="23">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -2213,7 +2149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="23">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -2221,7 +2157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="23">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,7 +2165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="23">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -2237,7 +2173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="23">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -2245,7 +2181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="23">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,7 +2189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="23">
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
@@ -2264,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="23">
       <c r="A18" s="12" t="s">
         <v>3</v>
       </c>
@@ -2275,7 +2211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="23">
       <c r="A19" s="12" t="s">
         <v>3</v>
       </c>
@@ -2286,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="23">
       <c r="A20" s="44" t="s">
         <v>3</v>
       </c>
@@ -2300,6 +2236,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2311,14 +2252,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.1640625" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="23">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -2329,7 +2270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="23">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -2338,7 +2279,7 @@
       </c>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="23">
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
@@ -2347,7 +2288,7 @@
       </c>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="23">
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
@@ -2356,7 +2297,7 @@
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="23">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
@@ -2365,7 +2306,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="23">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
@@ -2377,6 +2318,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2384,18 +2330,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -2403,7 +2349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -2411,7 +2357,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2419,7 +2365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2427,7 +2373,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2435,7 +2381,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2446,6 +2392,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2457,14 +2408,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2475,7 +2426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2486,7 +2437,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -2500,6 +2451,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2511,39 +2467,44 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="128.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="288" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="270">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="288" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="270">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2555,7 +2516,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
@@ -2564,15 +2525,15 @@
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>0</v>
@@ -2581,32 +2542,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>103</v>
-      </c>
-      <c r="B3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" t="s">
-        <v>105</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -2615,25 +2576,30 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
         <v>104</v>
-      </c>
-      <c r="C4" t="s">
-        <v>106</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/appGreece/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/appGreece/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="620" windowWidth="44000" windowHeight="23200" tabRatio="989"/>
+    <workbookView xWindow="3160" yWindow="620" windowWidth="42920" windowHeight="25120" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="102">
   <si>
     <t>type</t>
   </si>
@@ -274,36 +274,6 @@
   </si>
   <si>
     <t>This item pack is authorized. Please deliver this item pack.</t>
-  </si>
-  <si>
-    <t>Has the item pack been successfully delivered?</t>
-  </si>
-  <si>
-    <t>data('item_pack_barcode')</t>
-  </si>
-  <si>
-    <t>pre-summary</t>
-  </si>
-  <si>
-    <t>Since the entitlement was successfully delivered, we will now complete a brief delivery report.</t>
-  </si>
-  <si>
-    <t>now()</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>Thank you for completing the post-delivery survey. Continue to the next screen to finalize.</t>
-  </si>
-  <si>
-    <t>Would you like to scan a different item pack instead?</t>
-  </si>
-  <si>
-    <t>no_report_option</t>
-  </si>
-  <si>
-    <t>Since no item pack was successfully delivery, we will not fill out a post-distribution report.</t>
   </si>
   <si>
     <t>calculation_name</t>
@@ -380,9 +350,6 @@
 })()</t>
   </si>
   <si>
-    <t>selected(data('is_delivered'), 'true')</t>
-  </si>
-  <si>
     <t>(function() {var obj = JSON.parse(data('ranges'));
  if (obj === null || obj === undefined) {
   return 'with any barcode value';
@@ -402,12 +369,15 @@
   } 
 })()</t>
   </si>
+  <si>
+    <t>TRUE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -431,12 +401,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -576,10 +540,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -607,7 +571,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -623,9 +586,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -637,6 +597,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -976,7 +937,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -984,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD30"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1041,15 +1002,15 @@
     </row>
     <row r="2" spans="1:21" ht="23">
       <c r="A2" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
+        <v>96</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="18"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:21" ht="23">
       <c r="A3" s="9"/>
@@ -1061,7 +1022,7 @@
       <c r="E3" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="30" t="s">
         <v>58</v>
       </c>
       <c r="G3" s="20"/>
@@ -1090,7 +1051,7 @@
       <c r="E4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="25"/>
       <c r="H4" s="26"/>
       <c r="I4" s="11" t="s">
@@ -1114,13 +1075,13 @@
     </row>
     <row r="5" spans="1:21" ht="23">
       <c r="A5" s="22" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="32"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="25"/>
       <c r="H5" s="26"/>
       <c r="I5" s="11"/>
@@ -1141,13 +1102,13 @@
       <c r="A6" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="32"/>
+      <c r="F6" s="31"/>
       <c r="G6" s="25"/>
       <c r="H6" s="26" t="s">
         <v>64</v>
@@ -1176,8 +1137,8 @@
       <c r="E7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="41" t="s">
-        <v>108</v>
+      <c r="F7" s="39" t="s">
+        <v>98</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="26"/>
@@ -1208,7 +1169,7 @@
       <c r="E8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="39" t="s">
         <v>67</v>
       </c>
       <c r="G8" s="25"/>
@@ -1240,7 +1201,7 @@
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="25"/>
       <c r="H9" s="26"/>
       <c r="I9" s="11" t="s">
@@ -1269,7 +1230,7 @@
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="32"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="25"/>
       <c r="H10" s="26"/>
       <c r="I10" s="11"/>
@@ -1294,7 +1255,7 @@
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>70</v>
       </c>
       <c r="G11" s="25"/>
@@ -1323,7 +1284,7 @@
       <c r="E12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>71</v>
       </c>
       <c r="G12" s="25"/>
@@ -1355,7 +1316,7 @@
       <c r="E13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="31" t="s">
         <v>67</v>
       </c>
       <c r="G13" s="25"/>
@@ -1387,7 +1348,7 @@
       <c r="E14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="32"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="25"/>
       <c r="H14" s="26"/>
       <c r="I14" s="11" t="s">
@@ -1414,7 +1375,7 @@
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="32"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="25"/>
       <c r="H15" s="26"/>
       <c r="I15" s="11"/>
@@ -1441,10 +1402,10 @@
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="32"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="25"/>
       <c r="H16" s="26"/>
-      <c r="I16" s="34"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -1470,12 +1431,12 @@
       <c r="E17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="31" t="s">
         <v>77</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="26"/>
-      <c r="I17" s="35"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="11" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -1502,10 +1463,10 @@
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="32"/>
+      <c r="F18" s="31"/>
       <c r="G18" s="25"/>
       <c r="H18" s="26"/>
-      <c r="I18" s="35"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -1527,10 +1488,10 @@
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="32"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="25"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="35"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
@@ -1552,10 +1513,10 @@
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="32"/>
+      <c r="F20" s="31"/>
       <c r="G20" s="25"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="35"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -1577,10 +1538,10 @@
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="32"/>
+      <c r="F21" s="31"/>
       <c r="G21" s="25"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="35"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -1602,12 +1563,12 @@
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="31" t="s">
         <v>80</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="35"/>
+      <c r="I22" s="33"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -1625,20 +1586,18 @@
       <c r="A23" s="22"/>
       <c r="B23" s="23"/>
       <c r="C23" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>42</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D23" s="24"/>
       <c r="E23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="32" t="s">
-        <v>81</v>
-      </c>
+      <c r="F23" s="31"/>
       <c r="G23" s="25"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="35"/>
+      <c r="I23" s="43" t="s">
+        <v>101</v>
+      </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -1660,10 +1619,10 @@
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="32"/>
+      <c r="F24" s="31"/>
       <c r="G24" s="25"/>
       <c r="H24" s="26"/>
-      <c r="I24" s="34"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -1676,361 +1635,6 @@
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
-    </row>
-    <row r="25" spans="1:21" ht="23">
-      <c r="A25" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-    </row>
-    <row r="26" spans="1:21" ht="23">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-    </row>
-    <row r="27" spans="1:21" ht="41">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-    </row>
-    <row r="28" spans="1:21" ht="23">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-    </row>
-    <row r="29" spans="1:21" ht="41">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-    </row>
-    <row r="30" spans="1:21" ht="23">
-      <c r="A30" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-    </row>
-    <row r="31" spans="1:21" ht="23">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-    </row>
-    <row r="32" spans="1:21" ht="23">
-      <c r="A32" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-    </row>
-    <row r="33" spans="1:21" ht="23">
-      <c r="A33" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-    </row>
-    <row r="34" spans="1:21" ht="23">
-      <c r="A34" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-    </row>
-    <row r="35" spans="1:21" ht="41">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-    </row>
-    <row r="36" spans="1:21" ht="23">
-      <c r="A36" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-    </row>
-    <row r="37" spans="1:21" ht="23">
-      <c r="A37" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2193,7 +1797,7 @@
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="b">
@@ -2204,7 +1808,7 @@
       <c r="A18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="40" t="s">
         <v>60</v>
       </c>
       <c r="C18" t="b">
@@ -2215,7 +1819,7 @@
       <c r="A19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="40" t="s">
         <v>66</v>
       </c>
       <c r="C19" t="b">
@@ -2223,7 +1827,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="23">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2430,7 +2034,7 @@
       <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>43</v>
       </c>
       <c r="C2" t="s">
@@ -2441,7 +2045,7 @@
       <c r="A3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="41" t="s">
         <v>45</v>
       </c>
       <c r="C3" t="s">
@@ -2475,7 +2079,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
         <v>53</v>
@@ -2483,18 +2087,18 @@
     </row>
     <row r="2" spans="1:2" ht="270">
       <c r="A2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>111</v>
+        <v>82</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="270">
       <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>109</v>
+        <v>83</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2527,47 +2131,47 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -2578,19 +2182,19 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
